--- a/Buidling_mapping_Mazemap.xlsx
+++ b/Buidling_mapping_Mazemap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/boat_amorntiyanggoon_unimelb_edu_au/Documents/Casual Tasks/URL_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{88C8F383-52AD-446F-B617-15F501C82C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B796BC4-32A9-463C-AA64-7390346FE21C}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{88C8F383-52AD-446F-B617-15F501C82C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCFE7AD9-C6D7-42B6-8C0C-F992DD1991FA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2436" yWindow="3756" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1201,9 +1201,6 @@
     <t>411</t>
   </si>
   <si>
-    <t>WERRIBEE VETERINARY HOSPITAL</t>
-  </si>
-  <si>
     <t>413</t>
   </si>
   <si>
@@ -1267,9 +1264,6 @@
     <t>421</t>
   </si>
   <si>
-    <t>WERRIBEE CAMPUS SERVICES WORKSHOP/STORE</t>
-  </si>
-  <si>
     <t>422</t>
   </si>
   <si>
@@ -3953,6 +3947,12 @@
   </si>
   <si>
     <t>LAND (GROUND LEASE IAN POTTER SOUTHBANK CENTRE)</t>
+  </si>
+  <si>
+    <t>WERRIBEE CAMPUS MANAGEMENT OFFICE</t>
+  </si>
+  <si>
+    <t>WERRIBEE BUILDING 411</t>
   </si>
 </sst>
 </file>
@@ -4127,6 +4127,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4452,7 +4456,7 @@
   <dimension ref="A1:C649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6536,7 +6540,7 @@
         <v>391</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>392</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -6544,10 +6548,10 @@
         <v>12</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6555,10 +6559,10 @@
         <v>12</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6566,10 +6570,10 @@
         <v>12</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -6577,10 +6581,10 @@
         <v>12</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -6588,10 +6592,10 @@
         <v>12</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -6599,10 +6603,10 @@
         <v>12</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6610,10 +6614,10 @@
         <v>12</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -6621,10 +6625,10 @@
         <v>12</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -6632,10 +6636,10 @@
         <v>12</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -6643,10 +6647,10 @@
         <v>12</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -6654,10 +6658,10 @@
         <v>12</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>414</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -6665,10 +6669,10 @@
         <v>12</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -6676,16 +6680,16 @@
         <v>12</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C203" s="2"/>
     </row>
@@ -6694,10 +6698,10 @@
         <v>12</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -6705,10 +6709,10 @@
         <v>12</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -6716,10 +6720,10 @@
         <v>12</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -6727,10 +6731,10 @@
         <v>12</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -6738,10 +6742,10 @@
         <v>12</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -6749,10 +6753,10 @@
         <v>12</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -6760,10 +6764,10 @@
         <v>12</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6771,10 +6775,10 @@
         <v>12</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -6782,10 +6786,10 @@
         <v>12</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -6793,10 +6797,10 @@
         <v>12</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -6804,10 +6808,10 @@
         <v>12</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -6815,10 +6819,10 @@
         <v>12</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -6826,10 +6830,10 @@
         <v>12</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6837,10 +6841,10 @@
         <v>12</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -6848,10 +6852,10 @@
         <v>12</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -6859,10 +6863,10 @@
         <v>12</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6870,10 +6874,10 @@
         <v>12</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6881,10 +6885,10 @@
         <v>12</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -6892,10 +6896,10 @@
         <v>187</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6903,10 +6907,10 @@
         <v>187</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6914,10 +6918,10 @@
         <v>187</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6925,10 +6929,10 @@
         <v>187</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6936,10 +6940,10 @@
         <v>187</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6947,10 +6951,10 @@
         <v>187</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6958,10 +6962,10 @@
         <v>187</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6969,10 +6973,10 @@
         <v>187</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6980,10 +6984,10 @@
         <v>187</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6991,10 +6995,10 @@
         <v>187</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -7002,10 +7006,10 @@
         <v>187</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -7013,10 +7017,10 @@
         <v>187</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -7024,10 +7028,10 @@
         <v>187</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -7035,10 +7039,10 @@
         <v>187</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -7046,10 +7050,10 @@
         <v>3</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -7057,10 +7061,10 @@
         <v>187</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -7068,10 +7072,10 @@
         <v>204</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -7079,10 +7083,10 @@
         <v>204</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -7090,10 +7094,10 @@
         <v>3</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -7101,10 +7105,10 @@
         <v>7</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -7112,10 +7116,10 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -7123,10 +7127,10 @@
         <v>7</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -7134,10 +7138,10 @@
         <v>7</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -7145,10 +7149,10 @@
         <v>7</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -7156,10 +7160,10 @@
         <v>7</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -7167,10 +7171,10 @@
         <v>7</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -7178,10 +7182,10 @@
         <v>7</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -7189,10 +7193,10 @@
         <v>7</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -7200,10 +7204,10 @@
         <v>7</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7211,10 +7215,10 @@
         <v>7</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7222,10 +7226,10 @@
         <v>7</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -7233,10 +7237,10 @@
         <v>7</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -7244,10 +7248,10 @@
         <v>7</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -7255,10 +7259,10 @@
         <v>3</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -7266,10 +7270,10 @@
         <v>7</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -7277,10 +7281,10 @@
         <v>7</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7288,10 +7292,10 @@
         <v>7</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -7299,10 +7303,10 @@
         <v>7</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -7310,10 +7314,10 @@
         <v>7</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7321,10 +7325,10 @@
         <v>7</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -7332,10 +7336,10 @@
         <v>7</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -7343,10 +7347,10 @@
         <v>7</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -7354,10 +7358,10 @@
         <v>7</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -7365,10 +7369,10 @@
         <v>7</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -7376,10 +7380,10 @@
         <v>7</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -7387,10 +7391,10 @@
         <v>7</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -7398,10 +7402,10 @@
         <v>7</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7409,10 +7413,10 @@
         <v>7</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -7420,10 +7424,10 @@
         <v>7</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -7431,10 +7435,10 @@
         <v>7</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -7442,10 +7446,10 @@
         <v>7</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -7453,10 +7457,10 @@
         <v>7</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -7464,10 +7468,10 @@
         <v>7</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -7475,10 +7479,10 @@
         <v>7</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -7486,10 +7490,10 @@
         <v>7</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -7497,10 +7501,10 @@
         <v>7</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -7508,10 +7512,10 @@
         <v>7</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -7519,10 +7523,10 @@
         <v>7</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7530,10 +7534,10 @@
         <v>7</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7541,10 +7545,10 @@
         <v>7</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -7552,10 +7556,10 @@
         <v>7</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7563,10 +7567,10 @@
         <v>7</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -7574,10 +7578,10 @@
         <v>7</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -7585,10 +7589,10 @@
         <v>7</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -7596,10 +7600,10 @@
         <v>7</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7607,10 +7611,10 @@
         <v>7</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -7618,10 +7622,10 @@
         <v>7</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -7629,10 +7633,10 @@
         <v>7</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -7640,10 +7644,10 @@
         <v>7</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -7651,10 +7655,10 @@
         <v>7</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7662,10 +7666,10 @@
         <v>7</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -7673,10 +7677,10 @@
         <v>7</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -7684,10 +7688,10 @@
         <v>7</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7695,10 +7699,10 @@
         <v>7</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7706,10 +7710,10 @@
         <v>7</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7717,10 +7721,10 @@
         <v>7</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -7728,10 +7732,10 @@
         <v>7</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7739,10 +7743,10 @@
         <v>7</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -7750,10 +7754,10 @@
         <v>7</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7761,10 +7765,10 @@
         <v>7</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7772,10 +7776,10 @@
         <v>7</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7783,10 +7787,10 @@
         <v>7</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7794,10 +7798,10 @@
         <v>7</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -7805,10 +7809,10 @@
         <v>7</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -7816,10 +7820,10 @@
         <v>7</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -7827,10 +7831,10 @@
         <v>7</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7838,10 +7842,10 @@
         <v>7</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -7849,10 +7853,10 @@
         <v>7</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -7860,10 +7864,10 @@
         <v>7</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7871,10 +7875,10 @@
         <v>7</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -7882,10 +7886,10 @@
         <v>7</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -7893,10 +7897,10 @@
         <v>7</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -7904,10 +7908,10 @@
         <v>7</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -7915,10 +7919,10 @@
         <v>7</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -7926,10 +7930,10 @@
         <v>7</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -7937,10 +7941,10 @@
         <v>7</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -7948,10 +7952,10 @@
         <v>7</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7959,10 +7963,10 @@
         <v>7</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -7970,10 +7974,10 @@
         <v>7</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7981,10 +7985,10 @@
         <v>7</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7992,10 +7996,10 @@
         <v>7</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -8003,10 +8007,10 @@
         <v>7</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -8014,10 +8018,10 @@
         <v>7</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -8025,10 +8029,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -8036,10 +8040,10 @@
         <v>7</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -8047,10 +8051,10 @@
         <v>7</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -8058,10 +8062,10 @@
         <v>7</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -8069,10 +8073,10 @@
         <v>7</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -8080,10 +8084,10 @@
         <v>7</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -8091,10 +8095,10 @@
         <v>7</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -8102,10 +8106,10 @@
         <v>7</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -8113,10 +8117,10 @@
         <v>7</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -8124,10 +8128,10 @@
         <v>7</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -8135,10 +8139,10 @@
         <v>7</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -8146,10 +8150,10 @@
         <v>7</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -8157,10 +8161,10 @@
         <v>7</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -8168,10 +8172,10 @@
         <v>7</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -8179,10 +8183,10 @@
         <v>7</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -8190,10 +8194,10 @@
         <v>7</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -8201,10 +8205,10 @@
         <v>7</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -8212,10 +8216,10 @@
         <v>7</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -8223,10 +8227,10 @@
         <v>7</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -8234,10 +8238,10 @@
         <v>7</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -8245,10 +8249,10 @@
         <v>7</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -8256,10 +8260,10 @@
         <v>7</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -8267,10 +8271,10 @@
         <v>187</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -8278,10 +8282,10 @@
         <v>187</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -8289,10 +8293,10 @@
         <v>187</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8300,10 +8304,10 @@
         <v>187</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -8311,10 +8315,10 @@
         <v>187</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8322,10 +8326,10 @@
         <v>187</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -8333,10 +8337,10 @@
         <v>7</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8344,10 +8348,10 @@
         <v>7</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -8355,10 +8359,10 @@
         <v>7</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -8366,10 +8370,10 @@
         <v>7</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -8377,10 +8381,10 @@
         <v>7</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -8388,10 +8392,10 @@
         <v>7</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -8399,10 +8403,10 @@
         <v>7</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -8410,10 +8414,10 @@
         <v>7</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -8421,10 +8425,10 @@
         <v>7</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -8432,10 +8436,10 @@
         <v>7</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -8443,10 +8447,10 @@
         <v>7</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -8454,10 +8458,10 @@
         <v>7</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -8465,10 +8469,10 @@
         <v>7</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -8476,10 +8480,10 @@
         <v>231</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -8487,10 +8491,10 @@
         <v>231</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -8498,10 +8502,10 @@
         <v>231</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -8509,10 +8513,10 @@
         <v>231</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -8520,10 +8524,10 @@
         <v>231</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -8531,10 +8535,10 @@
         <v>231</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8542,10 +8546,10 @@
         <v>231</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -8553,10 +8557,10 @@
         <v>231</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -8564,10 +8568,10 @@
         <v>231</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8575,10 +8579,10 @@
         <v>231</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -8586,10 +8590,10 @@
         <v>231</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -8597,10 +8601,10 @@
         <v>231</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8608,10 +8612,10 @@
         <v>231</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -8619,10 +8623,10 @@
         <v>187</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8630,10 +8634,10 @@
         <v>231</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -8641,10 +8645,10 @@
         <v>231</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8652,10 +8656,10 @@
         <v>231</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8663,10 +8667,10 @@
         <v>231</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -8674,10 +8678,10 @@
         <v>231</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -8685,10 +8689,10 @@
         <v>231</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -8696,10 +8700,10 @@
         <v>231</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8707,10 +8711,10 @@
         <v>231</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -8718,10 +8722,10 @@
         <v>231</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -8729,10 +8733,10 @@
         <v>231</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -8740,10 +8744,10 @@
         <v>231</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -8751,10 +8755,10 @@
         <v>231</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -8762,10 +8766,10 @@
         <v>231</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -8773,10 +8777,10 @@
         <v>231</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8784,10 +8788,10 @@
         <v>231</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -8795,10 +8799,10 @@
         <v>231</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -8806,10 +8810,10 @@
         <v>231</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -8817,10 +8821,10 @@
         <v>327</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8828,10 +8832,10 @@
         <v>231</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -8839,10 +8843,10 @@
         <v>231</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -8850,10 +8854,10 @@
         <v>231</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -8861,10 +8865,10 @@
         <v>231</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -8872,10 +8876,10 @@
         <v>231</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8883,10 +8887,10 @@
         <v>327</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8894,10 +8898,10 @@
         <v>10</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -8905,10 +8909,10 @@
         <v>231</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -8916,10 +8920,10 @@
         <v>231</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -8927,10 +8931,10 @@
         <v>231</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -8938,10 +8942,10 @@
         <v>231</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -8949,10 +8953,10 @@
         <v>231</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -8960,10 +8964,10 @@
         <v>231</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8971,10 +8975,10 @@
         <v>231</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8982,10 +8986,10 @@
         <v>231</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8993,10 +8997,10 @@
         <v>327</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -9004,10 +9008,10 @@
         <v>231</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -9015,10 +9019,10 @@
         <v>231</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -9026,10 +9030,10 @@
         <v>231</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -9037,10 +9041,10 @@
         <v>231</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -9048,10 +9052,10 @@
         <v>231</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -9059,10 +9063,10 @@
         <v>231</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -9070,10 +9074,10 @@
         <v>231</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -9081,10 +9085,10 @@
         <v>231</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -9092,10 +9096,10 @@
         <v>231</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -9103,10 +9107,10 @@
         <v>231</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -9114,10 +9118,10 @@
         <v>231</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -9125,10 +9129,10 @@
         <v>231</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -9136,10 +9140,10 @@
         <v>4</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -9147,10 +9151,10 @@
         <v>10</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -9158,10 +9162,10 @@
         <v>231</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -9169,10 +9173,10 @@
         <v>4</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -9180,10 +9184,10 @@
         <v>231</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -9191,10 +9195,10 @@
         <v>231</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -9202,10 +9206,10 @@
         <v>4</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9213,10 +9217,10 @@
         <v>231</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -9224,10 +9228,10 @@
         <v>10</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -9235,10 +9239,10 @@
         <v>327</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -9246,10 +9250,10 @@
         <v>327</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -9257,10 +9261,10 @@
         <v>327</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -9268,10 +9272,10 @@
         <v>327</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -9279,10 +9283,10 @@
         <v>327</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -9290,10 +9294,10 @@
         <v>327</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -9301,10 +9305,10 @@
         <v>327</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -9312,10 +9316,10 @@
         <v>327</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -9323,10 +9327,10 @@
         <v>10</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -9334,10 +9338,10 @@
         <v>4</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -9345,10 +9349,10 @@
         <v>10</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -9356,10 +9360,10 @@
         <v>231</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -9367,10 +9371,10 @@
         <v>231</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9378,10 +9382,10 @@
         <v>231</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -9389,10 +9393,10 @@
         <v>4</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9400,10 +9404,10 @@
         <v>231</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -9411,10 +9415,10 @@
         <v>10</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9422,10 +9426,10 @@
         <v>10</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9433,10 +9437,10 @@
         <v>10</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -9444,10 +9448,10 @@
         <v>10</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -9455,10 +9459,10 @@
         <v>10</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9466,10 +9470,10 @@
         <v>10</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9477,10 +9481,10 @@
         <v>10</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9488,10 +9492,10 @@
         <v>10</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9499,10 +9503,10 @@
         <v>10</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9510,10 +9514,10 @@
         <v>4</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9521,10 +9525,10 @@
         <v>231</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -9532,10 +9536,10 @@
         <v>327</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9543,10 +9547,10 @@
         <v>6</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -9554,10 +9558,10 @@
         <v>10</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9565,10 +9569,10 @@
         <v>231</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9576,10 +9580,10 @@
         <v>327</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9587,10 +9591,10 @@
         <v>327</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -9598,10 +9602,10 @@
         <v>327</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9609,10 +9613,10 @@
         <v>279</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9620,10 +9624,10 @@
         <v>327</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -9631,10 +9635,10 @@
         <v>327</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -9642,10 +9646,10 @@
         <v>327</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -9653,10 +9657,10 @@
         <v>6</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9664,10 +9668,10 @@
         <v>6</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9675,10 +9679,10 @@
         <v>6</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9686,10 +9690,10 @@
         <v>6</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9697,10 +9701,10 @@
         <v>6</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9708,10 +9712,10 @@
         <v>6</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9719,10 +9723,10 @@
         <v>6</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9730,10 +9734,10 @@
         <v>6</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9741,10 +9745,10 @@
         <v>6</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9752,10 +9756,10 @@
         <v>6</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9763,10 +9767,10 @@
         <v>6</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9774,10 +9778,10 @@
         <v>6</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9785,10 +9789,10 @@
         <v>6</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9796,10 +9800,10 @@
         <v>6</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9807,10 +9811,10 @@
         <v>6</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9818,10 +9822,10 @@
         <v>6</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9829,10 +9833,10 @@
         <v>6</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9840,10 +9844,10 @@
         <v>6</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9851,10 +9855,10 @@
         <v>6</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9862,10 +9866,10 @@
         <v>6</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -9873,10 +9877,10 @@
         <v>6</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9884,10 +9888,10 @@
         <v>6</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -9895,10 +9899,10 @@
         <v>6</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -9906,10 +9910,10 @@
         <v>6</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -9917,10 +9921,10 @@
         <v>6</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -9928,10 +9932,10 @@
         <v>6</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -9939,10 +9943,10 @@
         <v>6</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -9950,10 +9954,10 @@
         <v>6</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9961,10 +9965,10 @@
         <v>6</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -9972,10 +9976,10 @@
         <v>6</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -9983,10 +9987,10 @@
         <v>6</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9994,10 +9998,10 @@
         <v>6</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -10005,10 +10009,10 @@
         <v>6</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -10016,10 +10020,10 @@
         <v>6</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -10027,10 +10031,10 @@
         <v>6</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -10038,10 +10042,10 @@
         <v>6</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -10049,10 +10053,10 @@
         <v>6</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -10060,10 +10064,10 @@
         <v>6</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -10071,10 +10075,10 @@
         <v>6</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -10082,10 +10086,10 @@
         <v>8</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -10093,10 +10097,10 @@
         <v>8</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -10104,10 +10108,10 @@
         <v>8</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -10115,10 +10119,10 @@
         <v>8</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -10126,10 +10130,10 @@
         <v>231</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -10137,10 +10141,10 @@
         <v>327</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -10148,10 +10152,10 @@
         <v>231</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -10159,10 +10163,10 @@
         <v>231</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -10170,10 +10174,10 @@
         <v>231</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -10181,10 +10185,10 @@
         <v>231</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -10192,10 +10196,10 @@
         <v>327</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -10203,10 +10207,10 @@
         <v>327</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -10214,10 +10218,10 @@
         <v>327</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -10225,10 +10229,10 @@
         <v>231</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -10236,10 +10240,10 @@
         <v>231</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -10247,10 +10251,10 @@
         <v>327</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -10258,10 +10262,10 @@
         <v>231</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -10269,10 +10273,10 @@
         <v>327</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -10280,10 +10284,10 @@
         <v>327</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -10291,10 +10295,10 @@
         <v>9</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10302,10 +10306,10 @@
         <v>9</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -10313,10 +10317,10 @@
         <v>9</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -10324,10 +10328,10 @@
         <v>279</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -10335,10 +10339,10 @@
         <v>11</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -10346,10 +10350,10 @@
         <v>11</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10357,10 +10361,10 @@
         <v>11</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10368,10 +10372,10 @@
         <v>11</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10379,10 +10383,10 @@
         <v>11</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10390,10 +10394,10 @@
         <v>11</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10401,10 +10405,10 @@
         <v>11</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10412,10 +10416,10 @@
         <v>11</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10423,10 +10427,10 @@
         <v>11</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10434,10 +10438,10 @@
         <v>11</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10445,10 +10449,10 @@
         <v>11</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10456,10 +10460,10 @@
         <v>11</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10467,10 +10471,10 @@
         <v>11</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10478,10 +10482,10 @@
         <v>11</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10489,10 +10493,10 @@
         <v>11</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10500,10 +10504,10 @@
         <v>11</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10511,10 +10515,10 @@
         <v>11</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10522,10 +10526,10 @@
         <v>11</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10533,10 +10537,10 @@
         <v>11</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10544,10 +10548,10 @@
         <v>11</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10555,10 +10559,10 @@
         <v>11</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10566,10 +10570,10 @@
         <v>11</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10577,10 +10581,10 @@
         <v>5</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10588,10 +10592,10 @@
         <v>5</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10599,10 +10603,10 @@
         <v>5</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10610,10 +10614,10 @@
         <v>5</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10621,10 +10625,10 @@
         <v>5</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10632,10 +10636,10 @@
         <v>5</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10643,10 +10647,10 @@
         <v>5</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10654,10 +10658,10 @@
         <v>5</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10665,10 +10669,10 @@
         <v>5</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10676,10 +10680,10 @@
         <v>5</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10687,10 +10691,10 @@
         <v>5</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10698,10 +10702,10 @@
         <v>5</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10709,10 +10713,10 @@
         <v>5</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10720,10 +10724,10 @@
         <v>5</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10731,10 +10735,10 @@
         <v>5</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10742,10 +10746,10 @@
         <v>5</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10753,10 +10757,10 @@
         <v>5</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10764,10 +10768,10 @@
         <v>5</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10775,10 +10779,10 @@
         <v>5</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10786,10 +10790,10 @@
         <v>5</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10797,10 +10801,10 @@
         <v>5</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10808,10 +10812,10 @@
         <v>5</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10819,10 +10823,10 @@
         <v>5</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10830,10 +10834,10 @@
         <v>5</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10841,10 +10845,10 @@
         <v>5</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10852,10 +10856,10 @@
         <v>5</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10863,10 +10867,10 @@
         <v>5</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10874,10 +10878,10 @@
         <v>5</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10885,10 +10889,10 @@
         <v>5</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10896,10 +10900,10 @@
         <v>5</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10907,10 +10911,10 @@
         <v>5</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -10918,10 +10922,10 @@
         <v>5</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10929,10 +10933,10 @@
         <v>5</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -10940,10 +10944,10 @@
         <v>5</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -10951,10 +10955,10 @@
         <v>5</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -10962,10 +10966,10 @@
         <v>5</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -10973,10 +10977,10 @@
         <v>5</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -10984,10 +10988,10 @@
         <v>5</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -10995,10 +10999,10 @@
         <v>5</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -11006,10 +11010,10 @@
         <v>5</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -11017,10 +11021,10 @@
         <v>5</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -11028,10 +11032,10 @@
         <v>5</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -11039,10 +11043,10 @@
         <v>5</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -11050,10 +11054,10 @@
         <v>5</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -11061,10 +11065,10 @@
         <v>5</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -11072,10 +11076,10 @@
         <v>5</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -11083,10 +11087,10 @@
         <v>5</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -11094,10 +11098,10 @@
         <v>5</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -11105,10 +11109,10 @@
         <v>5</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -11116,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -11127,10 +11131,10 @@
         <v>327</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -11138,10 +11142,10 @@
         <v>327</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -11149,10 +11153,10 @@
         <v>327</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -11160,10 +11164,10 @@
         <v>5</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -11171,10 +11175,10 @@
         <v>5</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -11182,10 +11186,10 @@
         <v>5</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -11193,10 +11197,10 @@
         <v>318</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -11204,10 +11208,10 @@
         <v>279</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11215,10 +11219,10 @@
         <v>279</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -11226,10 +11230,10 @@
         <v>279</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -11237,10 +11241,10 @@
         <v>279</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -11248,10 +11252,10 @@
         <v>279</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -11259,10 +11263,10 @@
         <v>279</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -11270,10 +11274,10 @@
         <v>318</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -11281,10 +11285,10 @@
         <v>279</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -11292,10 +11296,10 @@
         <v>279</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -11303,10 +11307,10 @@
         <v>187</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -11314,10 +11318,10 @@
         <v>204</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -11325,10 +11329,10 @@
         <v>5</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -11336,10 +11340,10 @@
         <v>3</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -11347,10 +11351,10 @@
         <v>3</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -11358,10 +11362,10 @@
         <v>3</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -11369,10 +11373,10 @@
         <v>3</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -11380,10 +11384,10 @@
         <v>3</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -11391,10 +11395,10 @@
         <v>12</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -11402,10 +11406,10 @@
         <v>12</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -11413,10 +11417,10 @@
         <v>12</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -11424,10 +11428,10 @@
         <v>12</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -11435,10 +11439,10 @@
         <v>12</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -11446,10 +11450,10 @@
         <v>12</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -11457,10 +11461,10 @@
         <v>12</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -11468,10 +11472,10 @@
         <v>12</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -11479,10 +11483,10 @@
         <v>12</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -11490,10 +11494,10 @@
         <v>12</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -11501,10 +11505,10 @@
         <v>12</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -11512,10 +11516,10 @@
         <v>12</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -11523,10 +11527,10 @@
         <v>12</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -11534,10 +11538,10 @@
         <v>12</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -11545,10 +11549,10 @@
         <v>12</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -11556,10 +11560,10 @@
         <v>12</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -11567,10 +11571,10 @@
         <v>187</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -11578,10 +11582,10 @@
         <v>12</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -11589,15 +11593,15 @@
         <v>11</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C649" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>